--- a/docs/Structure.xlsx
+++ b/docs/Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11865" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11865" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>대시보드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,98 @@
   </si>
   <si>
     <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임워크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REST API 재정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action "GET" 리턴타입 분리(JSON &amp; HTML)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그조회, 정렬 후 재검색 시 정렬설정 유지되도록 기능 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Models</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controllers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수 통합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 기능 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다국어 기능 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 템플릿 기능 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토 타입 기능 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리턴타입 객체 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속 인증, 로그인 권한 제한 기능 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beego 프레임워크 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVC 기능 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base controller 개발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,6 +210,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="d"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -157,9 +252,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -596,12 +700,199 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="4.625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="4" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="3" customFormat="1">
+      <c r="C1" s="1"/>
+      <c r="D1" s="3">
+        <v>43164</v>
+      </c>
+      <c r="E1" s="3">
+        <v>43165</v>
+      </c>
+      <c r="F1" s="3">
+        <v>43166</v>
+      </c>
+      <c r="G1" s="3">
+        <v>43167</v>
+      </c>
+      <c r="H1" s="3">
+        <v>43168</v>
+      </c>
+      <c r="I1" s="3">
+        <v>43169</v>
+      </c>
+      <c r="J1" s="3">
+        <v>43170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1">
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1">
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="C11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
